--- a/Files/roic-template.xlsx
+++ b/Files/roic-template.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jburkhow\Google Drive\Documents\GitHub\rule_one\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{635A7831-979A-4F0B-94C0-95CF244D0322}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8430F3D6-EE8C-4A23-802B-37F1CB51750C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROIC" sheetId="25" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="26" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ROIC!$K$1:$O$39</definedName>
     <definedName name="asd">#REF!</definedName>
     <definedName name="Forecast" localSheetId="0">#REF!</definedName>
     <definedName name="Forecast">#REF!</definedName>
@@ -41,7 +43,7 @@
     <definedName name="Step5">#REF!</definedName>
     <definedName name="Step6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="132">
   <si>
     <t>Income Statement</t>
   </si>
@@ -87,15 +89,9 @@
     <t>Net Earnings</t>
   </si>
   <si>
-    <t>Cost of Goods Sold (COGS)</t>
-  </si>
-  <si>
     <t>Expenses</t>
   </si>
   <si>
-    <t>© Corporate Finance Institute®. All rights reserved.</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -376,6 +372,90 @@
   </si>
   <si>
     <t>Cash dividends paid per 3M common share (in dollars per share)</t>
+  </si>
+  <si>
+    <t>ATHM</t>
+  </si>
+  <si>
+    <t>AUTOHOME INC.</t>
+  </si>
+  <si>
+    <t>Total Current Assets</t>
+  </si>
+  <si>
+    <t>Total Current Liabilities</t>
+  </si>
+  <si>
+    <t>Book Value of Equity</t>
+  </si>
+  <si>
+    <t>Cost of Goods Sold COGS</t>
+  </si>
+  <si>
+    <t>Depreciation Amortization</t>
+  </si>
+  <si>
+    <t>Book Value of Debt</t>
+  </si>
+  <si>
+    <t>Long term debt</t>
+  </si>
+  <si>
+    <t>Property Equipment</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Other long term liabilities</t>
+  </si>
+  <si>
+    <t>Notes Payable</t>
+  </si>
+  <si>
+    <t>Book Value of Invested Capital</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Total Non Current Liabilities?</t>
+  </si>
+  <si>
+    <t>General And Administrative Expense</t>
+  </si>
+  <si>
+    <t>Selling And Marketing Expense</t>
+  </si>
+  <si>
+    <t>Research And Development</t>
+  </si>
+  <si>
+    <t>EBIT</t>
+  </si>
+  <si>
+    <t>Current Liabilities?</t>
+  </si>
+  <si>
+    <t>Investments And Advances?</t>
+  </si>
+  <si>
+    <t>Minority Interest</t>
+  </si>
+  <si>
+    <t>Net (Total Non Current Assets)?</t>
+  </si>
+  <si>
+    <t>Tax Provision</t>
   </si>
 </sst>
 </file>
@@ -392,7 +472,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="170" formatCode="_(&quot;$ &quot;#,##0.00_);_(&quot;$ &quot;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,8 +628,24 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +667,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFA621C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +738,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -787,6 +895,11 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -794,6 +907,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -816,9 +935,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFA621C"/>
       <color rgb="FFED942D"/>
       <color rgb="FFF57A16"/>
-      <color rgb="FFFA621C"/>
       <color rgb="FF132E57"/>
       <color rgb="FF1F4E78"/>
       <color rgb="FF255CAD"/>
@@ -1158,26 +1277,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="90" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
     <col min="3" max="3" width="14" style="6" customWidth="1"/>
     <col min="4" max="4" width="16" style="9" customWidth="1"/>
     <col min="5" max="9" width="11.42578125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="6"/>
+    <col min="10" max="10" width="8.7109375" style="6"/>
+    <col min="11" max="11" width="16.28515625" style="86" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="86" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="94" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
+    <row r="1" spans="1:17">
+      <c r="A1" s="87"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
@@ -1186,11 +1309,26 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="K1" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="N1" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="18">
+      <c r="A2" s="88"/>
       <c r="B2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
@@ -1199,8 +1337,25 @@
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="1:9" s="60" customFormat="1" ht="21" customHeight="1">
+      <c r="K2" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="94">
+        <v>254973000</v>
+      </c>
+      <c r="O2" s="96">
+        <f>N2/1000000</f>
+        <v>254.97300000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="60" customFormat="1" ht="18">
+      <c r="A3" s="89"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
       <c r="D3" s="62"/>
@@ -1209,10 +1364,27 @@
       <c r="G3" s="63"/>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
-    </row>
-    <row r="4" spans="1:9" s="60" customFormat="1" ht="21" customHeight="1">
+      <c r="K3" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="94">
+        <v>291062000</v>
+      </c>
+      <c r="O3" s="96">
+        <f t="shared" ref="O3:O39" si="0">N3/1000000</f>
+        <v>291.06200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="60" customFormat="1">
+      <c r="A4" s="89"/>
       <c r="B4" s="49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
@@ -1221,10 +1393,30 @@
       <c r="G4" s="48"/>
       <c r="H4" s="48"/>
       <c r="I4" s="48"/>
-    </row>
-    <row r="5" spans="1:9" s="60" customFormat="1" ht="21" customHeight="1">
+      <c r="K4" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M4" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="94">
+        <v>-2513000</v>
+      </c>
+      <c r="O4" s="96">
+        <f>N4/1000000</f>
+        <v>-2.5129999999999999</v>
+      </c>
+      <c r="P4" s="97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="60" customFormat="1">
+      <c r="A5" s="89"/>
       <c r="B5" s="48" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48"/>
@@ -1233,8 +1425,25 @@
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
       <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="1:9" s="60" customFormat="1" ht="21" customHeight="1">
+      <c r="K5" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M5" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="94">
+        <v>140109000</v>
+      </c>
+      <c r="O5" s="96">
+        <f>N5/1000000</f>
+        <v>140.10900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="60" customFormat="1">
+      <c r="A6" s="89"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -1253,30 +1462,87 @@
       <c r="I6" s="51">
         <v>2018</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K6" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M6" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="94"/>
+      <c r="O6" s="99">
+        <f>N6/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+    </row>
+    <row r="7" spans="1:17" s="60" customFormat="1">
+      <c r="A7" s="89"/>
       <c r="B7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="H7" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K7" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M7" s="86" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="94"/>
+      <c r="O7" s="96">
+        <f>N7/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+    </row>
+    <row r="8" spans="1:17" s="60" customFormat="1">
+      <c r="A8" s="89"/>
       <c r="B8" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K8" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M8" s="86" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="94">
+        <v>0</v>
+      </c>
+      <c r="O8" s="96">
+        <f>N8/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+    </row>
+    <row r="9" spans="1:17" s="60" customFormat="1">
+      <c r="A9" s="89">
+        <v>1</v>
+      </c>
       <c r="B9" s="52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="29">
         <f>167971.1792+2882</f>
@@ -1291,17 +1557,38 @@
         <v>186501.256583009</v>
       </c>
       <c r="H9" s="29">
-        <f>211069.335606605+2797</f>
-        <v>213866.33560660499</v>
+        <f>SUMIF(M:M,B9,N:N)/1000000</f>
+        <v>140.10900000000001</v>
       </c>
       <c r="I9" s="29">
         <f>239549.520365185+2805</f>
         <v>242354.52036518499</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K9" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M9" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="94">
+        <v>1222145000</v>
+      </c>
+      <c r="O9" s="96">
+        <f>N9/1000000</f>
+        <v>1222.145</v>
+      </c>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+    </row>
+    <row r="10" spans="1:17" s="60" customFormat="1">
+      <c r="A10" s="89">
+        <v>2</v>
+      </c>
       <c r="B10" s="52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="29">
         <v>5100.3500000000004</v>
@@ -1313,15 +1600,37 @@
         <v>6567.25</v>
       </c>
       <c r="H10" s="29">
-        <v>7117.05</v>
+        <f>SUMIF(M:M,B10,N:N)/1000000</f>
+        <v>291.06200000000001</v>
       </c>
       <c r="I10" s="29">
         <v>7538.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K10" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M10" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="94">
+        <v>231203000</v>
+      </c>
+      <c r="O10" s="96">
+        <f>N10/1000000</f>
+        <v>231.203</v>
+      </c>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+    </row>
+    <row r="11" spans="1:17" s="60" customFormat="1">
+      <c r="A11" s="89">
+        <v>3</v>
+      </c>
       <c r="B11" s="52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="29">
         <v>4806</v>
@@ -1333,15 +1642,35 @@
         <v>5170</v>
       </c>
       <c r="H11" s="29">
-        <v>5998</v>
+        <f>SUMIF(M:M,B11,N:N)/1000000</f>
+        <v>28.608000000000001</v>
       </c>
       <c r="I11" s="29">
         <v>5682</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K11" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M11" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="94"/>
+      <c r="O11" s="99">
+        <f>N11/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+    </row>
+    <row r="12" spans="1:17" s="60" customFormat="1">
+      <c r="A12" s="89">
+        <v>4</v>
+      </c>
       <c r="B12" s="53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
@@ -1354,49 +1683,107 @@
       <c r="G12" s="34">
         <v>9824.6</v>
       </c>
-      <c r="H12" s="34">
-        <v>10530.800000000001</v>
+      <c r="H12" s="29">
+        <f>SUMIF(M:M,B12,N:N)/1000000</f>
+        <v>0</v>
       </c>
       <c r="I12" s="34">
         <v>11342</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K12" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M12" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12" s="94">
+        <v>0</v>
+      </c>
+      <c r="O12" s="96">
+        <f>N12/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+    </row>
+    <row r="13" spans="1:17" s="60" customFormat="1">
+      <c r="A13" s="89">
+        <v>5</v>
+      </c>
       <c r="B13" s="52" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E13" s="64">
         <f>SUM(E9:E12)</f>
         <v>188564.12920000002</v>
       </c>
       <c r="F13" s="54">
-        <f t="shared" ref="F13:I13" si="0">SUM(F9:F12)</f>
+        <f t="shared" ref="F13:I13" si="1">SUM(F9:F12)</f>
         <v>205013.01269787797</v>
       </c>
       <c r="G13" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>208063.10658300901</v>
       </c>
       <c r="H13" s="54">
-        <f t="shared" si="0"/>
-        <v>237512.18560660497</v>
+        <f t="shared" si="1"/>
+        <v>459.77900000000005</v>
       </c>
       <c r="I13" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>266917.12036518496</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K13" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M13" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="94"/>
+      <c r="O13" s="99">
+        <f>N13/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+    </row>
+    <row r="14" spans="1:17" s="60" customFormat="1">
+      <c r="A14" s="89"/>
       <c r="B14" s="55"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
-    </row>
-    <row r="15" spans="1:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K14" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M14" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="94"/>
+      <c r="O14" s="99">
+        <f>N14/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+    </row>
+    <row r="15" spans="1:17" s="60" customFormat="1">
+      <c r="A15" s="89">
+        <v>6</v>
+      </c>
       <c r="B15" s="55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="29">
         <v>45500</v>
@@ -1408,15 +1795,35 @@
         <v>40145</v>
       </c>
       <c r="H15" s="29">
-        <v>38601.5</v>
+        <f>SUMIF(M:M,B15,N:N)/1000000</f>
+        <v>0</v>
       </c>
       <c r="I15" s="29">
         <v>37521.050000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K15" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M15" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="N15" s="94"/>
+      <c r="O15" s="99">
+        <f>N15/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+    </row>
+    <row r="16" spans="1:17" s="60" customFormat="1">
+      <c r="A16" s="89">
+        <v>7</v>
+      </c>
       <c r="B16" s="55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
@@ -1430,15 +1837,35 @@
         <v>3910</v>
       </c>
       <c r="H16" s="29">
-        <v>3870</v>
+        <f>SUMIF(M:M,B16,N:N)/1000000</f>
+        <v>231.203</v>
       </c>
       <c r="I16" s="29">
         <v>3850</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="K16" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L16" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M16" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="94"/>
+      <c r="O16" s="99">
+        <f>N16/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+    </row>
+    <row r="17" spans="1:17" s="60" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A17" s="89">
+        <v>8</v>
+      </c>
       <c r="B17" s="35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35"/>
@@ -1447,53 +1874,135 @@
         <v>237644.12920000002</v>
       </c>
       <c r="F17" s="37">
-        <f t="shared" ref="F17:I17" si="1">SUM(F13:F16)</f>
+        <f t="shared" ref="F17:I17" si="2">SUM(F13:F16)</f>
         <v>250823.01269787797</v>
       </c>
       <c r="G17" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>252118.10658300901</v>
       </c>
       <c r="H17" s="37">
-        <f t="shared" si="1"/>
-        <v>279983.68560660497</v>
+        <f t="shared" si="2"/>
+        <v>690.98200000000008</v>
       </c>
       <c r="I17" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>308288.17036518495</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1" thickTop="1">
+      <c r="K17" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M17" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17" s="94"/>
+      <c r="O17" s="99">
+        <f>N17/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+    </row>
+    <row r="18" spans="1:17" s="60" customFormat="1" ht="16.5" thickTop="1">
+      <c r="A18" s="89"/>
       <c r="B18" s="26"/>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K18" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L18" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M18" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="94">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O18" s="99">
+        <f>N18/1000000</f>
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="P18" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="97"/>
+    </row>
+    <row r="19" spans="1:17" s="60" customFormat="1">
+      <c r="A19" s="89"/>
       <c r="B19" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K19" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M19" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="94">
+        <v>20030000</v>
+      </c>
+      <c r="O19" s="98">
+        <f>N19/1000000</f>
+        <v>20.03</v>
+      </c>
+      <c r="P19" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="97"/>
+    </row>
+    <row r="20" spans="1:17" s="60" customFormat="1">
+      <c r="A20" s="89">
+        <v>9</v>
+      </c>
       <c r="B20" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K20" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M20" s="86" t="s">
+        <v>112</v>
+      </c>
+      <c r="N20" s="94">
+        <v>22736000</v>
+      </c>
+      <c r="O20" s="98">
+        <f>N20/1000000</f>
+        <v>22.736000000000001</v>
+      </c>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+    </row>
+    <row r="21" spans="1:17" s="60" customFormat="1">
+      <c r="A21" s="89">
+        <v>10</v>
+      </c>
       <c r="B21" s="52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="29">
         <v>3902.3</v>
@@ -1505,15 +2014,37 @@
         <v>4912.3</v>
       </c>
       <c r="H21" s="29">
-        <v>5265.4000000000005</v>
+        <f>SUMIF(M:M,B21,N:N)/1000000</f>
+        <v>254.97300000000001</v>
       </c>
       <c r="I21" s="29">
         <v>5671</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K21" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M21" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" s="94">
+        <v>22736000</v>
+      </c>
+      <c r="O21" s="98">
+        <f>N21/1000000</f>
+        <v>22.736000000000001</v>
+      </c>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+    </row>
+    <row r="22" spans="1:17" s="60" customFormat="1">
+      <c r="A22" s="89">
+        <v>11</v>
+      </c>
       <c r="B22" s="52" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="29">
         <v>1320</v>
@@ -1525,15 +2056,39 @@
         <v>1662</v>
       </c>
       <c r="H22" s="29">
-        <v>1865</v>
+        <f>SUMIF(M:M,B22,N:N)/1000000</f>
+        <v>72.295000000000002</v>
       </c>
       <c r="I22" s="29">
         <v>1899</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K22" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M22" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="94">
+        <v>41050000</v>
+      </c>
+      <c r="O22" s="96">
+        <f>N22/1000000</f>
+        <v>41.05</v>
+      </c>
+      <c r="P22" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="97"/>
+    </row>
+    <row r="23" spans="1:17" s="60" customFormat="1">
+      <c r="A23" s="89">
+        <v>12</v>
+      </c>
       <c r="B23" s="52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="29">
         <v>327</v>
@@ -1545,15 +2100,37 @@
         <v>331</v>
       </c>
       <c r="H23" s="29">
-        <v>342</v>
+        <f>SUMIF(M:M,B23,N:N)/1000000</f>
+        <v>0</v>
       </c>
       <c r="I23" s="29">
         <v>350</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K23" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M23" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="94">
+        <v>711203000</v>
+      </c>
+      <c r="O23" s="96">
+        <f>N23/1000000</f>
+        <v>711.20299999999997</v>
+      </c>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+    </row>
+    <row r="24" spans="1:17" s="60" customFormat="1">
+      <c r="A24" s="89">
+        <v>13</v>
+      </c>
       <c r="B24" s="65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="22">
         <v>1540</v>
@@ -1564,16 +2141,38 @@
       <c r="G24" s="34">
         <v>1853</v>
       </c>
-      <c r="H24" s="34">
-        <v>1952</v>
+      <c r="H24" s="29">
+        <f>SUMIF(M:M,B24,N:N)/1000000</f>
+        <v>597.77800000000002</v>
       </c>
       <c r="I24" s="34">
         <v>1724</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K24" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M24" s="86" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="94">
+        <v>954487000</v>
+      </c>
+      <c r="O24" s="96">
+        <f>N24/1000000</f>
+        <v>954.48699999999997</v>
+      </c>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+    </row>
+    <row r="25" spans="1:17" s="60" customFormat="1">
+      <c r="A25" s="89">
+        <v>14</v>
+      </c>
       <c r="B25" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="66"/>
       <c r="D25" s="66"/>
@@ -1591,24 +2190,68 @@
       </c>
       <c r="H25" s="54">
         <f>SUM(H21:H24)</f>
-        <v>9424.4000000000015</v>
+        <v>925.04600000000005</v>
       </c>
       <c r="I25" s="54">
         <f>SUM(I21:I24)</f>
         <v>9644</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" s="60" customFormat="1" ht="12" customHeight="1">
+      <c r="K25" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L25" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M25" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="94">
+        <v>28608000</v>
+      </c>
+      <c r="O25" s="98">
+        <f>N25/1000000</f>
+        <v>28.608000000000001</v>
+      </c>
+      <c r="P25" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25" s="97"/>
+    </row>
+    <row r="26" spans="1:17" s="60" customFormat="1">
+      <c r="A26" s="89"/>
       <c r="B26" s="52"/>
       <c r="E26" s="54"/>
       <c r="F26" s="54"/>
       <c r="G26" s="54"/>
       <c r="H26" s="54"/>
       <c r="I26" s="54"/>
-    </row>
-    <row r="27" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K26" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L26" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M26" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="94">
+        <v>43335000</v>
+      </c>
+      <c r="O26" s="98">
+        <f>N26/1000000</f>
+        <v>43.335000000000001</v>
+      </c>
+      <c r="P26" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q26" s="97"/>
+    </row>
+    <row r="27" spans="1:17" s="60" customFormat="1">
+      <c r="A27" s="89">
+        <v>15</v>
+      </c>
       <c r="B27" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="29">
         <v>50000</v>
@@ -1620,15 +2263,37 @@
         <v>30000</v>
       </c>
       <c r="H27" s="29">
-        <v>30000</v>
+        <f>SUMIF(M:M,B27,N:N)/1000000</f>
+        <v>0</v>
       </c>
       <c r="I27" s="29">
         <v>30000</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K27" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L27" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M27" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="94">
+        <v>72295000</v>
+      </c>
+      <c r="O27" s="98">
+        <f>N27/1000000</f>
+        <v>72.295000000000002</v>
+      </c>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+    </row>
+    <row r="28" spans="1:17" s="60" customFormat="1">
+      <c r="A28" s="89">
+        <v>16</v>
+      </c>
       <c r="B28" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="29">
         <v>5526</v>
@@ -1640,15 +2305,39 @@
         <v>5565</v>
       </c>
       <c r="H28" s="29">
-        <v>6051</v>
+        <f>SUMIF(M:M,B28,N:N)/1000000</f>
+        <v>0</v>
       </c>
       <c r="I28" s="29">
         <v>5909</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K28" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M28" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="N28" s="94">
+        <v>135065000</v>
+      </c>
+      <c r="O28" s="98">
+        <f>N28/1000000</f>
+        <v>135.065</v>
+      </c>
+      <c r="P28" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q28" s="97"/>
+    </row>
+    <row r="29" spans="1:17" s="60" customFormat="1">
+      <c r="A29" s="89">
+        <v>17</v>
+      </c>
       <c r="B29" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="23"/>
       <c r="D29" s="23"/>
@@ -1657,43 +2346,102 @@
         <v>62615.3</v>
       </c>
       <c r="F29" s="25">
-        <f t="shared" ref="F29:I29" si="2">SUM(F25:F28)</f>
+        <f t="shared" ref="F29:I29" si="3">SUM(F25:F28)</f>
         <v>64103.4</v>
       </c>
       <c r="G29" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44323.3</v>
       </c>
       <c r="H29" s="25">
-        <f t="shared" si="2"/>
-        <v>45475.4</v>
+        <f t="shared" si="3"/>
+        <v>925.04600000000005</v>
       </c>
       <c r="I29" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45553</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K29" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M29" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="94">
+        <v>222969820</v>
+      </c>
+      <c r="O29" s="98">
+        <f>N29/1000000</f>
+        <v>222.96982</v>
+      </c>
+      <c r="P29" s="97"/>
+      <c r="Q29" s="97"/>
+    </row>
+    <row r="30" spans="1:17" s="60" customFormat="1">
+      <c r="A30" s="89"/>
       <c r="B30" s="26"/>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
-    </row>
-    <row r="31" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K30" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L30" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M30" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" s="94">
+        <v>253219000</v>
+      </c>
+      <c r="O30" s="98">
+        <f>N30/1000000</f>
+        <v>253.21899999999999</v>
+      </c>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+    </row>
+    <row r="31" spans="1:17" s="60" customFormat="1">
+      <c r="A31" s="89"/>
       <c r="B31" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="2:9" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K31" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L31" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M31" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="N31" s="94">
+        <v>459779000</v>
+      </c>
+      <c r="O31" s="98">
+        <f>N31/1000000</f>
+        <v>459.779</v>
+      </c>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+    </row>
+    <row r="32" spans="1:17" s="60" customFormat="1">
+      <c r="A32" s="89">
+        <v>18</v>
+      </c>
       <c r="B32" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" s="29">
         <v>170000</v>
@@ -1705,15 +2453,37 @@
         <v>170000</v>
       </c>
       <c r="H32" s="29">
-        <v>170000</v>
+        <f>SUMIF(M:M,B32,N:N)/1000000</f>
+        <v>1222.145</v>
       </c>
       <c r="I32" s="29">
         <v>170000</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K32" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L32" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M32" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" s="94">
+        <v>597778000</v>
+      </c>
+      <c r="O32" s="98">
+        <f>N32/1000000</f>
+        <v>597.77800000000002</v>
+      </c>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+    </row>
+    <row r="33" spans="1:17" s="60" customFormat="1">
+      <c r="A33" s="89">
+        <v>19</v>
+      </c>
       <c r="B33" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E33" s="29">
         <v>2555</v>
@@ -1725,15 +2495,37 @@
         <v>2455</v>
       </c>
       <c r="H33" s="29">
-        <v>2455</v>
+        <f>SUMIF(M:M,B33,N:N)/1000000</f>
+        <v>-2.5129999999999999</v>
       </c>
       <c r="I33" s="29">
         <v>2455</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K33" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M33" s="86" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" s="94">
+        <v>208826000</v>
+      </c>
+      <c r="O33" s="96">
+        <f>N33/1000000</f>
+        <v>208.82599999999999</v>
+      </c>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+    </row>
+    <row r="34" spans="1:17" s="60" customFormat="1">
+      <c r="A34" s="89">
+        <v>20</v>
+      </c>
       <c r="B34" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="29">
         <v>2473.8292000000001</v>
@@ -1745,15 +2537,37 @@
         <v>35339.806583009296</v>
       </c>
       <c r="H34" s="29">
-        <v>62053.285606604608</v>
+        <f>SUMIF(M:M,B34,N:N)/1000000</f>
+        <v>711.20299999999997</v>
       </c>
       <c r="I34" s="29">
         <v>90280.170365184895</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" s="60" customFormat="1" ht="18" customHeight="1">
+      <c r="K34" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M34" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="94">
+        <v>711012000</v>
+      </c>
+      <c r="O34" s="98">
+        <f>N34/1000000</f>
+        <v>711.01199999999994</v>
+      </c>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+    </row>
+    <row r="35" spans="1:17" s="60" customFormat="1">
+      <c r="A35" s="89">
+        <v>21</v>
+      </c>
       <c r="B35" s="57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="57"/>
       <c r="D35" s="57"/>
@@ -1762,25 +2576,48 @@
         <v>175028.82920000001</v>
       </c>
       <c r="F35" s="58">
-        <f t="shared" ref="F35:I35" si="3">SUM(F32:F34)</f>
+        <f t="shared" ref="F35:I35" si="4">SUM(F32:F34)</f>
         <v>186719.61269787798</v>
       </c>
       <c r="G35" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>207794.80658300931</v>
       </c>
       <c r="H35" s="58">
-        <f t="shared" si="3"/>
-        <v>234508.28560660459</v>
+        <f t="shared" si="4"/>
+        <v>1930.835</v>
       </c>
       <c r="I35" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>262735.17036518489</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" s="60" customFormat="1" ht="18" customHeight="1" thickBot="1">
+      <c r="K35" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M35" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="N35" s="94">
+        <v>925046000</v>
+      </c>
+      <c r="O35" s="98">
+        <f>N35/1000000</f>
+        <v>925.04600000000005</v>
+      </c>
+      <c r="P35" s="97" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q35" s="97"/>
+    </row>
+    <row r="36" spans="1:17" s="60" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A36" s="89">
+        <v>22</v>
+      </c>
       <c r="B36" s="35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -1789,33 +2626,75 @@
         <v>237644.12920000002</v>
       </c>
       <c r="F36" s="37">
-        <f t="shared" ref="F36:I36" si="4">F29+F35</f>
+        <f t="shared" ref="F36:I36" si="5">F29+F35</f>
         <v>250823.01269787797</v>
       </c>
       <c r="G36" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>252118.1065830093</v>
       </c>
       <c r="H36" s="37">
-        <f t="shared" si="4"/>
-        <v>279983.68560660462</v>
+        <f t="shared" si="5"/>
+        <v>2855.8810000000003</v>
       </c>
       <c r="I36" s="37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>308288.17036518489</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" s="60" customFormat="1" ht="21" customHeight="1" thickTop="1">
+      <c r="K36" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L36" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M36" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="94">
+        <v>314042000</v>
+      </c>
+      <c r="O36" s="96">
+        <f>N36/1000000</f>
+        <v>314.04199999999997</v>
+      </c>
+      <c r="P36" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q36" s="97"/>
+    </row>
+    <row r="37" spans="1:17" s="60" customFormat="1" ht="16.5" thickTop="1">
+      <c r="A37" s="89"/>
       <c r="B37" s="13"/>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
-    </row>
-    <row r="38" spans="2:11" s="60" customFormat="1" ht="21" customHeight="1">
+      <c r="K37" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M37" s="86" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="94">
+        <v>1930835000</v>
+      </c>
+      <c r="O37" s="98">
+        <f>N37/1000000</f>
+        <v>1930.835</v>
+      </c>
+      <c r="P37" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q37" s="97"/>
+    </row>
+    <row r="38" spans="1:17" s="60" customFormat="1">
+      <c r="A38" s="89"/>
       <c r="B38" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38" s="59">
         <f>E36-E17</f>
@@ -1831,19 +2710,56 @@
       </c>
       <c r="H38" s="59">
         <f>H36-H17</f>
-        <v>0</v>
+        <v>2164.8990000000003</v>
       </c>
       <c r="I38" s="59">
         <f>I36-I17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" s="60" customFormat="1" ht="21" customHeight="1">
+      <c r="K38" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L38" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M38" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="N38" s="94">
+        <v>745661000</v>
+      </c>
+      <c r="O38" s="96">
+        <f>N38/1000000</f>
+        <v>745.66099999999994</v>
+      </c>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+    </row>
+    <row r="39" spans="1:17" s="60" customFormat="1" ht="18">
+      <c r="A39" s="89"/>
       <c r="B39" s="61"/>
       <c r="C39" s="61"/>
       <c r="D39" s="62"/>
-    </row>
-    <row r="40" spans="2:11">
+      <c r="K39" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L39" s="86">
+        <v>2017</v>
+      </c>
+      <c r="M39" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="N39" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="O39" s="98" t="str">
+        <f>N39</f>
+        <v>%</v>
+      </c>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="97"/>
+    </row>
+    <row r="40" spans="1:17">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="14"/>
@@ -1853,9 +2769,10 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="2:11">
+      <c r="P40" s="97"/>
+      <c r="Q40" s="97"/>
+    </row>
+    <row r="41" spans="1:17">
       <c r="B41" s="16" t="s">
         <v>0</v>
       </c>
@@ -1873,22 +2790,25 @@
         <v>2016</v>
       </c>
       <c r="H41" s="38">
-        <f t="shared" ref="H41" si="5">+G41+1</f>
+        <f t="shared" ref="H41" si="6">+G41+1</f>
         <v>2017</v>
       </c>
       <c r="I41" s="38">
-        <f t="shared" ref="I41" si="6">+H41+1</f>
+        <f t="shared" ref="I41" si="7">+H41+1</f>
         <v>2018</v>
       </c>
       <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-    </row>
-    <row r="42" spans="2:11">
+      <c r="P41" s="97"/>
+      <c r="Q41" s="97"/>
+    </row>
+    <row r="42" spans="1:17">
       <c r="B42" s="17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" s="17"/>
-      <c r="D42" s="18"/>
+      <c r="D42" s="18">
+        <v>1</v>
+      </c>
       <c r="E42" s="19">
         <v>102007</v>
       </c>
@@ -1898,21 +2818,25 @@
       <c r="G42" s="19">
         <v>131345</v>
       </c>
-      <c r="H42" s="19">
-        <v>142341</v>
+      <c r="H42" s="29">
+        <f>SUMIF(M:M,B42,N:N)/1000000</f>
+        <v>954.48699999999997</v>
       </c>
       <c r="I42" s="19">
         <v>150772</v>
       </c>
       <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="20" t="s">
-        <v>9</v>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="B43" s="86" t="s">
+        <v>109</v>
       </c>
       <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
+      <c r="D43" s="21">
+        <v>2</v>
+      </c>
       <c r="E43" s="22">
         <v>39023</v>
       </c>
@@ -1922,47 +2846,52 @@
       <c r="G43" s="22">
         <v>49123</v>
       </c>
-      <c r="H43" s="22">
-        <v>52654</v>
+      <c r="H43" s="29">
+        <f>SUMIF(M:M,B43,N:N)/1000000</f>
+        <v>208.82599999999999</v>
       </c>
       <c r="I43" s="22">
         <v>56710</v>
       </c>
       <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-    </row>
-    <row r="44" spans="2:11">
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+    </row>
+    <row r="44" spans="1:17">
       <c r="B44" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
+      <c r="D44" s="24">
+        <v>3</v>
+      </c>
       <c r="E44" s="25">
         <f>E42-E43</f>
         <v>62984</v>
       </c>
       <c r="F44" s="25">
-        <f t="shared" ref="F44:H44" si="7">F42-F43</f>
+        <f t="shared" ref="F44:H44" si="8">F42-F43</f>
         <v>70082</v>
       </c>
       <c r="G44" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>82222</v>
       </c>
       <c r="H44" s="25">
-        <f t="shared" si="7"/>
-        <v>89687</v>
+        <f t="shared" si="8"/>
+        <v>745.66099999999994</v>
       </c>
       <c r="I44" s="25">
         <f>I42-I43</f>
         <v>94062</v>
       </c>
       <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-    </row>
-    <row r="45" spans="2:11">
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="B45" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
@@ -1972,14 +2901,17 @@
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-    </row>
-    <row r="46" spans="2:11">
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="B46" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
+      <c r="D46" s="14">
+        <v>4</v>
+      </c>
       <c r="E46" s="29">
         <v>26427</v>
       </c>
@@ -1990,20 +2922,22 @@
         <v>23872</v>
       </c>
       <c r="H46" s="29">
-        <v>23002</v>
+        <f>SUMIF(M:M,B46,N:N)/1000000</f>
+        <v>253.21899999999999</v>
       </c>
       <c r="I46" s="29">
         <v>25245</v>
       </c>
       <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-    </row>
-    <row r="47" spans="2:11">
+    </row>
+    <row r="47" spans="1:17">
       <c r="B47" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
+      <c r="D47" s="14">
+        <v>5</v>
+      </c>
       <c r="E47" s="29">
         <v>10963</v>
       </c>
@@ -2014,20 +2948,22 @@
         <v>10087</v>
       </c>
       <c r="H47" s="29">
-        <v>11020</v>
+        <f>SUMIF(M:M,B47,N:N)/1000000</f>
+        <v>43.335000000000001</v>
       </c>
       <c r="I47" s="29">
         <v>11412</v>
       </c>
       <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-    </row>
-    <row r="48" spans="2:11">
+    </row>
+    <row r="48" spans="1:17">
       <c r="B48" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
+      <c r="D48" s="14">
+        <v>6</v>
+      </c>
       <c r="E48" s="29">
         <v>19500</v>
       </c>
@@ -2038,49 +2974,52 @@
         <v>17205</v>
       </c>
       <c r="H48" s="29">
-        <v>16543.5</v>
+        <f>SUMIF(M:M,B48,N:N)/1000000</f>
+        <v>0</v>
       </c>
       <c r="I48" s="29">
         <v>16080.449999999999</v>
       </c>
       <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-    </row>
-    <row r="49" spans="2:13">
+    </row>
+    <row r="49" spans="1:15">
       <c r="B49" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
+      <c r="D49" s="31">
+        <v>7</v>
+      </c>
       <c r="E49" s="25">
         <f>E44-SUM(E46:E48)</f>
         <v>6094</v>
       </c>
       <c r="F49" s="25">
-        <f t="shared" ref="F49:I49" si="8">F44-SUM(F46:F48)</f>
+        <f t="shared" ref="F49:I49" si="9">F44-SUM(F46:F48)</f>
         <v>19149</v>
       </c>
       <c r="G49" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31058</v>
       </c>
       <c r="H49" s="25">
-        <f t="shared" si="8"/>
-        <v>39121.5</v>
+        <f t="shared" si="9"/>
+        <v>449.10699999999997</v>
       </c>
       <c r="I49" s="25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41324.550000000003</v>
       </c>
       <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-    </row>
-    <row r="50" spans="2:13">
+    </row>
+    <row r="50" spans="1:15">
       <c r="B50" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
+      <c r="D50" s="33">
+        <v>8</v>
+      </c>
       <c r="E50" s="34">
         <v>2500</v>
       </c>
@@ -2090,50 +3029,53 @@
       <c r="G50" s="34">
         <v>1500</v>
       </c>
-      <c r="H50" s="34">
-        <v>1500</v>
+      <c r="H50" s="29">
+        <f>SUMIF(M:M,B50,N:N)/1000000</f>
+        <v>0</v>
       </c>
       <c r="I50" s="34">
         <v>1500</v>
       </c>
       <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-    </row>
-    <row r="51" spans="2:13">
+    </row>
+    <row r="51" spans="1:15">
       <c r="B51" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
+      <c r="D51" s="24">
+        <v>9</v>
+      </c>
       <c r="E51" s="25">
         <f>E49-E50</f>
         <v>3594</v>
       </c>
       <c r="F51" s="25">
-        <f t="shared" ref="F51:I51" si="9">F49-F50</f>
+        <f t="shared" ref="F51:I51" si="10">F49-F50</f>
         <v>16649</v>
       </c>
       <c r="G51" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29558</v>
       </c>
       <c r="H51" s="25">
-        <f t="shared" si="9"/>
-        <v>37621.5</v>
+        <f t="shared" si="10"/>
+        <v>449.10699999999997</v>
       </c>
       <c r="I51" s="25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>39824.550000000003</v>
       </c>
       <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-    </row>
-    <row r="52" spans="2:13">
+    </row>
+    <row r="52" spans="1:15">
       <c r="B52" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
+      <c r="D52" s="21">
+        <v>10</v>
+      </c>
       <c r="E52" s="29">
         <v>1120.1708000000001</v>
       </c>
@@ -2144,22 +3086,22 @@
         <v>8482.8061148686775</v>
       </c>
       <c r="H52" s="29">
-        <v>10908.02097640469</v>
+        <f>SUMIF(M:M,B52,N:N)/1000000</f>
+        <v>41.05</v>
       </c>
       <c r="I52" s="29">
         <v>11597.665241419718</v>
       </c>
       <c r="J52" s="13"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-    </row>
-    <row r="53" spans="2:13" ht="15.75" thickBot="1">
+    </row>
+    <row r="53" spans="1:15" ht="16.5" thickBot="1">
       <c r="B53" s="35" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="35"/>
-      <c r="D53" s="36"/>
+      <c r="D53" s="36">
+        <v>11</v>
+      </c>
       <c r="E53" s="37">
         <f>E51-E52</f>
         <v>2473.8292000000001</v>
@@ -2174,18 +3116,15 @@
       </c>
       <c r="H53" s="37">
         <f>H51-H52</f>
-        <v>26713.479023595311</v>
+        <v>408.05699999999996</v>
       </c>
       <c r="I53" s="37">
         <f>I51-I52</f>
         <v>28226.884758580287</v>
       </c>
       <c r="J53" s="13"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-    </row>
-    <row r="54" spans="2:13" ht="15.75" collapsed="1" thickTop="1">
+    </row>
+    <row r="54" spans="1:15" ht="16.5" collapsed="1" thickTop="1">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="14"/>
@@ -2195,13 +3134,10 @@
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
       <c r="J54" s="13"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-    </row>
-    <row r="55" spans="2:13">
+    </row>
+    <row r="55" spans="1:15">
       <c r="B55" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="11"/>
@@ -2221,11 +3157,8 @@
         <v>0.29121899033183596</v>
       </c>
       <c r="J55" s="13"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-    </row>
-    <row r="56" spans="2:13" ht="8.25" customHeight="1">
+    </row>
+    <row r="56" spans="1:15">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
@@ -2235,13 +3168,10 @@
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
       <c r="J56" s="13"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-    </row>
-    <row r="57" spans="2:13">
+    </row>
+    <row r="57" spans="1:15">
       <c r="B57" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C57" s="40"/>
       <c r="D57" s="41"/>
@@ -2250,7 +3180,7 @@
         <v>4194.6341526989427</v>
       </c>
       <c r="F57" s="42">
-        <f t="shared" ref="F57:I57" si="10">F49*(1-F55)</f>
+        <f t="shared" ref="F57:I57" si="11">F49*(1-F55)</f>
         <v>13561.277746463165</v>
       </c>
       <c r="G57" s="42">
@@ -2258,19 +3188,17 @@
         <v>22144.711133514062</v>
       </c>
       <c r="H57" s="42">
-        <f t="shared" si="10"/>
-        <v>27778.567298528335</v>
+        <f t="shared" si="11"/>
+        <v>318.89239992689863</v>
       </c>
       <c r="I57" s="42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29290.05627308253</v>
       </c>
       <c r="J57" s="13"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="71"/>
-      <c r="M57" s="60"/>
-    </row>
-    <row r="58" spans="2:13" s="60" customFormat="1">
+    </row>
+    <row r="58" spans="1:15" s="60" customFormat="1">
+      <c r="A58" s="89"/>
       <c r="B58" s="67"/>
       <c r="C58" s="68"/>
       <c r="D58" s="69"/>
@@ -2280,10 +3208,15 @@
       <c r="H58" s="70"/>
       <c r="I58" s="70"/>
       <c r="J58" s="71"/>
-    </row>
-    <row r="59" spans="2:13">
+      <c r="K58" s="86"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="95"/>
+    </row>
+    <row r="59" spans="1:15">
       <c r="B59" s="72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C59" s="32"/>
       <c r="D59" s="33"/>
@@ -2293,13 +3226,10 @@
       <c r="H59" s="34"/>
       <c r="I59" s="34"/>
       <c r="J59" s="13"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-    </row>
-    <row r="60" spans="2:13">
+    </row>
+    <row r="60" spans="1:15">
       <c r="B60" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="14"/>
@@ -2308,29 +3238,26 @@
         <v>50327</v>
       </c>
       <c r="F60" s="13">
-        <f t="shared" ref="F60:I60" si="11">SUM(F23,F27)</f>
+        <f t="shared" ref="F60:I60" si="12">SUM(F23,F27)</f>
         <v>50330</v>
       </c>
       <c r="G60" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30331</v>
       </c>
       <c r="H60" s="13">
-        <f t="shared" si="11"/>
-        <v>30342</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="I60" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>30350</v>
       </c>
       <c r="J60" s="13"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-    </row>
-    <row r="61" spans="2:13">
+    </row>
+    <row r="61" spans="1:15">
       <c r="B61" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="14"/>
@@ -2339,29 +3266,26 @@
         <v>175028.82920000004</v>
       </c>
       <c r="F61" s="13">
-        <f t="shared" ref="F61:I61" si="12">F17-F29</f>
+        <f t="shared" ref="F61:I61" si="13">F17-F29</f>
         <v>186719.61269787798</v>
       </c>
       <c r="G61" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>207794.80658300902</v>
       </c>
       <c r="H61" s="13">
-        <f t="shared" si="12"/>
-        <v>234508.28560660497</v>
+        <f t="shared" si="13"/>
+        <v>-234.06399999999996</v>
       </c>
       <c r="I61" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>262735.17036518495</v>
       </c>
       <c r="J61" s="13"/>
-      <c r="K61" s="71"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-    </row>
-    <row r="62" spans="2:13">
+    </row>
+    <row r="62" spans="1:15">
       <c r="B62" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="14"/>
@@ -2379,18 +3303,17 @@
       </c>
       <c r="H62" s="13">
         <f>H16</f>
-        <v>3870</v>
+        <v>231.203</v>
       </c>
       <c r="I62" s="13">
         <f>I16</f>
         <v>3850</v>
       </c>
       <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-    </row>
-    <row r="63" spans="2:13">
+    </row>
+    <row r="63" spans="1:15">
       <c r="B63" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="14"/>
@@ -2408,18 +3331,17 @@
       </c>
       <c r="H63" s="13">
         <f>H9</f>
-        <v>213866.33560660499</v>
+        <v>140.10900000000001</v>
       </c>
       <c r="I63" s="13">
         <f>I9</f>
         <v>242354.52036518499</v>
       </c>
       <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-    </row>
-    <row r="64" spans="2:13">
+    </row>
+    <row r="64" spans="1:15">
       <c r="B64" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="14"/>
@@ -2428,32 +3350,31 @@
         <v>50922.650000000023</v>
       </c>
       <c r="F64" s="13">
-        <f t="shared" ref="F64:I64" si="13">F60+F61-F62-F63</f>
+        <f t="shared" ref="F64:I64" si="14">F60+F61-F62-F63</f>
         <v>49594.699999999983</v>
       </c>
       <c r="G64" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>47714.550000000017</v>
       </c>
       <c r="H64" s="13">
-        <f t="shared" si="13"/>
-        <v>47113.950000000012</v>
+        <f t="shared" si="14"/>
+        <v>-605.37599999999998</v>
       </c>
       <c r="I64" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>46880.649999999965</v>
       </c>
       <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-    </row>
-    <row r="66" spans="2:11">
+    </row>
+    <row r="66" spans="2:10">
       <c r="B66" s="73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C66" s="73"/>
       <c r="D66" s="74"/>
       <c r="E66" s="76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F66" s="75">
         <f>F57/E64</f>
@@ -2465,16 +3386,15 @@
       </c>
       <c r="H66" s="75">
         <f>H57/G64</f>
-        <v>0.58218231752218819</v>
+        <v>6.6833366326811954E-3</v>
       </c>
       <c r="I66" s="75">
         <f>I57/H64</f>
-        <v>0.62168543017689071</v>
+        <v>-48.383246565907022</v>
       </c>
       <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-    </row>
-    <row r="67" spans="2:11">
+    </row>
+    <row r="67" spans="2:10">
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="14"/>
@@ -2484,9 +3404,8 @@
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-    </row>
-    <row r="68" spans="2:11">
+    </row>
+    <row r="68" spans="2:10">
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="14"/>
@@ -2496,60 +3415,64 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-    </row>
-    <row r="69" spans="2:11" ht="15.75">
+    </row>
+    <row r="69" spans="2:10">
       <c r="B69" s="43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C69" s="44"/>
       <c r="D69" s="44"/>
     </row>
-    <row r="70" spans="2:11" ht="15.75">
+    <row r="70" spans="2:10">
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
       <c r="D70" s="44"/>
     </row>
-    <row r="71" spans="2:11" ht="15.75">
+    <row r="71" spans="2:10">
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
       <c r="D71" s="44"/>
     </row>
-    <row r="72" spans="2:11" ht="15.75">
+    <row r="72" spans="2:10">
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
       <c r="D72" s="44"/>
     </row>
-    <row r="73" spans="2:11" ht="15.75">
+    <row r="73" spans="2:10">
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
       <c r="D73" s="44"/>
     </row>
-    <row r="74" spans="2:11" ht="15.75">
+    <row r="74" spans="2:10">
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
       <c r="D74" s="44"/>
     </row>
-    <row r="75" spans="2:11" ht="15.75">
+    <row r="75" spans="2:10">
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
       <c r="D75" s="44"/>
     </row>
-    <row r="76" spans="2:11" ht="15.75">
+    <row r="76" spans="2:10">
       <c r="B76" s="44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C76" s="45"/>
       <c r="D76" s="45"/>
     </row>
-    <row r="77" spans="2:11" ht="15.75">
+    <row r="77" spans="2:10">
       <c r="B77" s="46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C77" s="47"/>
       <c r="D77" s="47"/>
     </row>
   </sheetData>
+  <autoFilter ref="K1:O39" xr:uid="{0730BED7-212D-4FE4-A6D0-D5C83F62DE6A}">
+    <sortState ref="K19:O39">
+      <sortCondition ref="O1:O39"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="B4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -2581,41 +3504,41 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
+        <v>75</v>
+      </c>
+      <c r="F1" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:12" ht="30">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>20110630</v>
       </c>
-      <c r="F2" s="87"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="78" t="s">
         <v>82</v>
-      </c>
-      <c r="H2" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>2011</v>
@@ -2626,24 +3549,24 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>84962000000</v>
       </c>
       <c r="F5" s="80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G5" s="81">
         <v>31657</v>
@@ -2657,12 +3580,12 @@
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>21990000000</v>
@@ -2675,7 +3598,7 @@
         <v>62972000000</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="82">
         <v>16001</v>
@@ -2689,20 +3612,20 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>8718000000</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <f>D7-B8</f>
         <v>54254000000</v>
       </c>
       <c r="F8" s="80" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="82">
         <v>6572</v>
@@ -2716,13 +3639,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>2248000000</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="82">
         <v>1850</v>
@@ -2736,7 +3659,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="F10" s="80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G10" s="82">
         <v>-586</v>
@@ -2750,13 +3673,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11">
         <v>32956000000</v>
       </c>
       <c r="F11" s="80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G11" s="82">
         <v>23837</v>
@@ -2770,7 +3693,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>19050000000</v>
@@ -2780,7 +3703,7 @@
         <v>52006000000</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="82">
         <v>7820</v>
@@ -2806,24 +3729,24 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>295000000</v>
       </c>
       <c r="F13" s="79" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14">
         <v>54000000</v>
       </c>
       <c r="F14" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="82">
         <v>272</v>
@@ -2837,13 +3760,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>-241000000</v>
       </c>
       <c r="F15" s="80" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G15" s="82">
         <v>7548</v>
@@ -2857,7 +3780,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="F16" s="80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="82">
         <v>2679</v>
@@ -2871,13 +3794,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>9284000000</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="82">
         <v>4869</v>
@@ -2891,13 +3814,13 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18">
         <v>2592000000</v>
       </c>
       <c r="F18" s="80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G18" s="82">
         <v>11</v>
@@ -2911,13 +3834,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19">
         <v>13384000000</v>
       </c>
       <c r="F19" s="80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G19" s="81">
         <v>4858</v>
@@ -2931,13 +3854,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>119000000</v>
       </c>
       <c r="F20" s="80" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G20" s="83">
         <v>597.5</v>
@@ -2951,13 +3874,13 @@
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>6573000000</v>
       </c>
       <c r="F21" s="80" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G21" s="84">
         <v>8.1300000000000008</v>
@@ -2971,13 +3894,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>9.23</v>
       </c>
       <c r="F22" s="80" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G22" s="83">
         <v>612.70000000000005</v>
@@ -2991,13 +3914,13 @@
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>9.06</v>
       </c>
       <c r="F23" s="80" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G23" s="84">
         <v>7.93</v>
@@ -3011,13 +3934,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>3.2250000000000001</v>
       </c>
       <c r="F24" s="80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G24" s="84">
         <v>4.7</v>
@@ -3044,4 +3967,544 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7F9FB9-6BB6-4C60-A6A2-D4B3E4DC4E81}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2">
+        <v>2017</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>254973000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3">
+        <v>2017</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>291062000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>72295000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>2017</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>140109000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>2017</v>
+      </c>
+      <c r="C6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6">
+        <v>208826000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7">
+        <v>135065000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>2017</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>1222145000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>231203000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11">
+        <v>2017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>745661000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13">
+        <v>2017</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>2017</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14">
+        <v>22736000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>2017</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>-2513000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>2017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>2017</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>314042000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <v>2017</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <v>2017</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>28608000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>2017</v>
+      </c>
+      <c r="C21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21">
+        <v>20030000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>43335000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>2017</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>711203000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>2017</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>954487000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>2017</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>253219000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>2017</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>41050000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27">
+        <v>2017</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27">
+        <v>459779000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28">
+        <v>2017</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28">
+        <v>597778000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29">
+        <v>2017</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>711012000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30">
+        <v>2017</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30">
+        <v>925046000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31">
+        <v>2017</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32">
+        <v>2017</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32">
+        <v>1930835000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33">
+        <v>2017</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34">
+        <v>2017</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <v>2017</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>222969820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36">
+        <v>2017</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36">
+        <v>22736000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37">
+        <v>2017</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
+        <v>2017</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39">
+        <v>2017</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>